--- a/cabañas.xlsx
+++ b/cabañas.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="13425" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,13 +65,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,7 +85,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -74,18 +93,347 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -108,12 +456,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
@@ -121,14 +708,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,17 +1049,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -645,27 +1285,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="C4" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="C5" r:id="rId7"/>
-    <hyperlink ref="D5" r:id="rId8"/>
-    <hyperlink ref="C6" r:id="rId9"/>
-    <hyperlink ref="D6" r:id="rId10"/>
-    <hyperlink ref="C7" r:id="rId11"/>
-    <hyperlink ref="D7" r:id="rId12"/>
-    <hyperlink ref="C8" r:id="rId13"/>
-    <hyperlink ref="D8" r:id="rId14"/>
-    <hyperlink ref="C9" r:id="rId15"/>
-    <hyperlink ref="D9" r:id="rId16"/>
-    <hyperlink ref="C10" r:id="rId17"/>
-    <hyperlink ref="D10" r:id="rId18"/>
-    <hyperlink ref="C11" r:id="rId19"/>
-    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://goo.gl/maps/ejemplo"/>
+    <hyperlink ref="D2" r:id="rId2" display="https://hotelprueba.com"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://goo.gl/maps/ejemplo"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://hotelprueba.com"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://goo.gl/maps/ejemplo"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://hotelprueba.com"/>
+    <hyperlink ref="C5" r:id="rId1" display="https://goo.gl/maps/ejemplo"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://hotelprueba.com"/>
+    <hyperlink ref="C6" r:id="rId1" display="https://goo.gl/maps/ejemplo"/>
+    <hyperlink ref="D6" r:id="rId2" display="https://hotelprueba.com"/>
+    <hyperlink ref="C7" r:id="rId1" display="https://goo.gl/maps/ejemplo"/>
+    <hyperlink ref="D7" r:id="rId2" display="https://hotelprueba.com"/>
+    <hyperlink ref="C8" r:id="rId1" display="https://goo.gl/maps/ejemplo"/>
+    <hyperlink ref="D8" r:id="rId2" display="https://hotelprueba.com"/>
+    <hyperlink ref="C9" r:id="rId1" display="https://goo.gl/maps/ejemplo"/>
+    <hyperlink ref="D9" r:id="rId2" display="https://hotelprueba.com"/>
+    <hyperlink ref="C10" r:id="rId1" display="https://goo.gl/maps/ejemplo"/>
+    <hyperlink ref="D10" r:id="rId2" display="https://hotelprueba.com"/>
+    <hyperlink ref="C11" r:id="rId1" display="https://goo.gl/maps/ejemplo"/>
+    <hyperlink ref="D11" r:id="rId2" display="https://hotelprueba.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>